--- a/database/industries/folad/kechad/product/yearly.xlsx
+++ b/database/industries/folad/kechad/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\kechad\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\kechad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D2C5D9-7B6E-47B6-A25E-1E49157EFA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865DAD7D-2D3E-484F-8F47-68F4BC9C97CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="38">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
     <t>سنگ دانه بندی</t>
@@ -593,12 +593,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -608,7 +608,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -620,7 +620,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -632,7 +632,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -642,7 +642,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -654,7 +654,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -666,7 +666,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -676,7 +676,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -698,7 +698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -708,7 +708,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -717,22 +717,22 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>300851</v>
+        <v>385064</v>
       </c>
       <c r="F10" s="9">
-        <v>385064</v>
+        <v>353020</v>
       </c>
       <c r="G10" s="9">
-        <v>353020</v>
+        <v>230147</v>
       </c>
       <c r="H10" s="9">
-        <v>230147</v>
+        <v>0</v>
       </c>
       <c r="I10" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -741,22 +741,22 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>3517127</v>
+        <v>3557079</v>
       </c>
       <c r="F11" s="11">
-        <v>3557079</v>
+        <v>1481354</v>
       </c>
       <c r="G11" s="11">
-        <v>1481354</v>
+        <v>3730637</v>
       </c>
       <c r="H11" s="11">
-        <v>3730637</v>
+        <v>3809591</v>
       </c>
       <c r="I11" s="11">
-        <v>3809591</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3778860</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -765,22 +765,22 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>8496982</v>
+        <v>9770996</v>
       </c>
       <c r="F12" s="9">
-        <v>9770996</v>
+        <v>6042763</v>
       </c>
       <c r="G12" s="9">
-        <v>6042763</v>
+        <v>11467855</v>
       </c>
       <c r="H12" s="9">
-        <v>11467855</v>
+        <v>11028686</v>
       </c>
       <c r="I12" s="9">
-        <v>11028686</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11042266</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
@@ -789,22 +789,22 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>68349</v>
+        <v>31411</v>
       </c>
       <c r="F13" s="11">
-        <v>31411</v>
+        <v>52154</v>
       </c>
       <c r="G13" s="11">
-        <v>52154</v>
+        <v>61679</v>
       </c>
       <c r="H13" s="11">
-        <v>61679</v>
+        <v>81269</v>
       </c>
       <c r="I13" s="11">
-        <v>81269</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>64923</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
@@ -813,22 +813,22 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>329501</v>
+        <v>880980</v>
       </c>
       <c r="F14" s="9">
-        <v>880980</v>
+        <v>1030193</v>
       </c>
       <c r="G14" s="9">
-        <v>1030193</v>
+        <v>1025500</v>
       </c>
       <c r="H14" s="9">
-        <v>1025500</v>
+        <v>1054800</v>
       </c>
       <c r="I14" s="9">
-        <v>1054800</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1184278</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
@@ -839,20 +839,20 @@
       <c r="E15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>17</v>
+      <c r="F15" s="11">
+        <v>381750</v>
       </c>
       <c r="G15" s="11">
-        <v>381750</v>
+        <v>1602843</v>
       </c>
       <c r="H15" s="11">
-        <v>1602843</v>
+        <v>1464286</v>
       </c>
       <c r="I15" s="11">
-        <v>1464286</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1615015</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -867,14 +867,14 @@
       <c r="G16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>17</v>
+      <c r="H16" s="9">
+        <v>0</v>
       </c>
       <c r="I16" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -891,14 +891,14 @@
       <c r="G17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>17</v>
+      <c r="H17" s="11">
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -915,14 +915,14 @@
       <c r="G18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>17</v>
+      <c r="H18" s="9">
+        <v>0</v>
       </c>
       <c r="I18" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -939,14 +939,14 @@
       <c r="G19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>17</v>
+      <c r="H19" s="11">
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -963,14 +963,14 @@
       <c r="G20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>17</v>
+      <c r="H20" s="9">
+        <v>49621</v>
       </c>
       <c r="I20" s="9">
-        <v>49621</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -987,36 +987,36 @@
       <c r="G21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>17</v>
+      <c r="H21" s="11">
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
-        <v>12712810</v>
+        <v>14625530</v>
       </c>
       <c r="F22" s="13">
-        <v>14625530</v>
+        <v>9341234</v>
       </c>
       <c r="G22" s="13">
-        <v>9341234</v>
+        <v>18118661</v>
       </c>
       <c r="H22" s="13">
-        <v>18118661</v>
+        <v>17488253</v>
       </c>
       <c r="I22" s="13">
-        <v>17488253</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17685342</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1026,7 +1026,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1036,7 +1036,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1046,7 +1046,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>26</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1078,7 +1078,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>10</v>
       </c>
@@ -1087,22 +1087,22 @@
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9">
-        <v>1303127</v>
+        <v>533491</v>
       </c>
       <c r="F28" s="9">
-        <v>533491</v>
+        <v>305497</v>
       </c>
       <c r="G28" s="9">
-        <v>305497</v>
+        <v>199802</v>
       </c>
       <c r="H28" s="9">
-        <v>199802</v>
+        <v>8031</v>
       </c>
       <c r="I28" s="9">
-        <v>8031</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>12</v>
       </c>
@@ -1111,22 +1111,22 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>3460827</v>
+        <v>3089744</v>
       </c>
       <c r="F29" s="11">
-        <v>3089744</v>
+        <v>1711524</v>
       </c>
       <c r="G29" s="11">
-        <v>1711524</v>
+        <v>1418711</v>
       </c>
       <c r="H29" s="11">
-        <v>1418711</v>
+        <v>1802062</v>
       </c>
       <c r="I29" s="11">
-        <v>1802062</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1363295</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>13</v>
       </c>
@@ -1135,22 +1135,22 @@
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9">
-        <v>5274624</v>
+        <v>5476365</v>
       </c>
       <c r="F30" s="9">
-        <v>5476365</v>
+        <v>5183598</v>
       </c>
       <c r="G30" s="9">
-        <v>5183598</v>
+        <v>7002217</v>
       </c>
       <c r="H30" s="9">
-        <v>7002217</v>
+        <v>7674289</v>
       </c>
       <c r="I30" s="9">
-        <v>7674289</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6269056</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>14</v>
       </c>
@@ -1159,22 +1159,22 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>66081</v>
+        <v>25380</v>
       </c>
       <c r="F31" s="11">
-        <v>25380</v>
+        <v>57661</v>
       </c>
       <c r="G31" s="11">
-        <v>57661</v>
+        <v>49336</v>
       </c>
       <c r="H31" s="11">
-        <v>49336</v>
+        <v>81916</v>
       </c>
       <c r="I31" s="11">
-        <v>81916</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>75687</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>15</v>
       </c>
@@ -1183,22 +1183,22 @@
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9">
-        <v>393971</v>
+        <v>867340</v>
       </c>
       <c r="F32" s="9">
-        <v>867340</v>
+        <v>999081</v>
       </c>
       <c r="G32" s="9">
-        <v>999081</v>
+        <v>1033461</v>
       </c>
       <c r="H32" s="9">
-        <v>1033461</v>
+        <v>1017666</v>
       </c>
       <c r="I32" s="9">
-        <v>1017666</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1179313</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>16</v>
       </c>
@@ -1209,20 +1209,20 @@
       <c r="E33" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>17</v>
+      <c r="F33" s="11">
+        <v>365825</v>
       </c>
       <c r="G33" s="11">
-        <v>365825</v>
+        <v>340974</v>
       </c>
       <c r="H33" s="11">
-        <v>340974</v>
+        <v>172724</v>
       </c>
       <c r="I33" s="11">
-        <v>172724</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>134712</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>27</v>
       </c>
@@ -1230,8 +1230,8 @@
         <v>28</v>
       </c>
       <c r="D34" s="9"/>
-      <c r="E34" s="9" t="s">
-        <v>17</v>
+      <c r="E34" s="9">
+        <v>0</v>
       </c>
       <c r="F34" s="9">
         <v>0</v>
@@ -1239,21 +1239,21 @@
       <c r="G34" s="9">
         <v>0</v>
       </c>
-      <c r="H34" s="9">
-        <v>0</v>
+      <c r="H34" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="11" t="s">
-        <v>17</v>
+      <c r="E35" s="11">
+        <v>0</v>
       </c>
       <c r="F35" s="11">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>19</v>
       </c>
@@ -1285,14 +1285,14 @@
       <c r="G36" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>17</v>
+      <c r="H36" s="9">
+        <v>3606388</v>
       </c>
       <c r="I36" s="9">
-        <v>3606388</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>20</v>
       </c>
@@ -1309,14 +1309,14 @@
       <c r="G37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="11" t="s">
-        <v>17</v>
+      <c r="H37" s="11">
+        <v>0</v>
       </c>
       <c r="I37" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>21</v>
       </c>
@@ -1333,14 +1333,14 @@
       <c r="G38" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>17</v>
+      <c r="H38" s="9">
+        <v>1765542</v>
       </c>
       <c r="I38" s="9">
-        <v>1765542</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>22</v>
       </c>
@@ -1357,14 +1357,14 @@
       <c r="G39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="11" t="s">
-        <v>17</v>
+      <c r="H39" s="11">
+        <v>131938</v>
       </c>
       <c r="I39" s="11">
-        <v>131938</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7228</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>23</v>
       </c>
@@ -1378,17 +1378,17 @@
       <c r="F40" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>17</v>
+      <c r="G40" s="9">
+        <v>3101042</v>
       </c>
       <c r="H40" s="9">
-        <v>3101042</v>
+        <v>3418198</v>
       </c>
       <c r="I40" s="9">
-        <v>3418198</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3038698</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>23</v>
       </c>
@@ -1399,12 +1399,12 @@
       <c r="E41" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="11">
+      <c r="F41" s="11">
         <v>2866891</v>
       </c>
+      <c r="G41" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" s="11" t="s">
         <v>17</v>
       </c>
@@ -1412,29 +1412,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
-        <v>10498630</v>
+        <v>9992320</v>
       </c>
       <c r="F42" s="13">
-        <v>9992320</v>
+        <v>11490077</v>
       </c>
       <c r="G42" s="13">
-        <v>11490077</v>
+        <v>13145543</v>
       </c>
       <c r="H42" s="13">
-        <v>13145543</v>
+        <v>19678754</v>
       </c>
       <c r="I42" s="13">
-        <v>19678754</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12067989</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1444,7 +1444,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1454,7 +1454,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1464,7 +1464,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>30</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1496,7 +1496,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>10</v>
       </c>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
-        <v>1260172</v>
+        <v>649750</v>
       </c>
       <c r="F48" s="9">
-        <v>649750</v>
+        <v>1503645</v>
       </c>
       <c r="G48" s="9">
-        <v>1503645</v>
+        <v>2344958</v>
       </c>
       <c r="H48" s="9">
-        <v>2344958</v>
+        <v>141984</v>
       </c>
       <c r="I48" s="9">
-        <v>141984</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>12</v>
       </c>
@@ -1529,22 +1529,22 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>13159726</v>
+        <v>20883249</v>
       </c>
       <c r="F49" s="11">
-        <v>20883249</v>
+        <v>15650211</v>
       </c>
       <c r="G49" s="11">
-        <v>15650211</v>
+        <v>34317375</v>
       </c>
       <c r="H49" s="11">
-        <v>34317375</v>
+        <v>73975250</v>
       </c>
       <c r="I49" s="11">
-        <v>73975250</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>45157623</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>13</v>
       </c>
@@ -1553,22 +1553,22 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>12759390</v>
+        <v>23118872</v>
       </c>
       <c r="F50" s="9">
-        <v>23118872</v>
+        <v>32357968</v>
       </c>
       <c r="G50" s="9">
-        <v>32357968</v>
+        <v>116977955</v>
       </c>
       <c r="H50" s="9">
-        <v>116977955</v>
+        <v>217714744</v>
       </c>
       <c r="I50" s="9">
-        <v>217714744</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>177651254</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>14</v>
       </c>
@@ -1577,22 +1577,22 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>137619</v>
+        <v>66072</v>
       </c>
       <c r="F51" s="11">
-        <v>66072</v>
+        <v>219084</v>
       </c>
       <c r="G51" s="11">
-        <v>219084</v>
+        <v>657102</v>
       </c>
       <c r="H51" s="11">
-        <v>657102</v>
+        <v>1588659</v>
       </c>
       <c r="I51" s="11">
-        <v>1588659</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1837331</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>15</v>
       </c>
@@ -1601,22 +1601,22 @@
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
-        <v>7237182</v>
+        <v>25686448</v>
       </c>
       <c r="F52" s="9">
-        <v>25686448</v>
+        <v>39652977</v>
       </c>
       <c r="G52" s="9">
-        <v>39652977</v>
+        <v>90049547</v>
       </c>
       <c r="H52" s="9">
-        <v>90049547</v>
+        <v>130466145</v>
       </c>
       <c r="I52" s="9">
-        <v>130466145</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>171263842</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>16</v>
       </c>
@@ -1627,20 +1627,20 @@
       <c r="E53" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>17</v>
+      <c r="F53" s="11">
+        <v>7096912</v>
       </c>
       <c r="G53" s="11">
-        <v>7096912</v>
+        <v>14840068</v>
       </c>
       <c r="H53" s="11">
-        <v>14840068</v>
+        <v>14169026</v>
       </c>
       <c r="I53" s="11">
-        <v>14169026</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10453848</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>27</v>
       </c>
@@ -1648,8 +1648,8 @@
         <v>31</v>
       </c>
       <c r="D54" s="9"/>
-      <c r="E54" s="9" t="s">
-        <v>17</v>
+      <c r="E54" s="9">
+        <v>0</v>
       </c>
       <c r="F54" s="9">
         <v>0</v>
@@ -1657,14 +1657,14 @@
       <c r="G54" s="9">
         <v>0</v>
       </c>
-      <c r="H54" s="9">
-        <v>0</v>
+      <c r="H54" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>18</v>
       </c>
@@ -1672,8 +1672,8 @@
         <v>31</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
-        <v>17</v>
+      <c r="E55" s="11">
+        <v>0</v>
       </c>
       <c r="F55" s="11">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>19</v>
       </c>
@@ -1705,14 +1705,14 @@
       <c r="G56" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="9" t="s">
-        <v>17</v>
+      <c r="H56" s="9">
+        <v>0</v>
       </c>
       <c r="I56" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>20</v>
       </c>
@@ -1729,14 +1729,14 @@
       <c r="G57" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="11" t="s">
-        <v>17</v>
+      <c r="H57" s="11">
+        <v>12945991</v>
       </c>
       <c r="I57" s="11">
-        <v>12945991</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>654719</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>21</v>
       </c>
@@ -1753,14 +1753,14 @@
       <c r="G58" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H58" s="9" t="s">
-        <v>17</v>
+      <c r="H58" s="9">
+        <v>0</v>
       </c>
       <c r="I58" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>22</v>
       </c>
@@ -1777,14 +1777,14 @@
       <c r="G59" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="11" t="s">
-        <v>17</v>
+      <c r="H59" s="11">
+        <v>1718219</v>
       </c>
       <c r="I59" s="11">
-        <v>1718219</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>150813</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>23</v>
       </c>
@@ -1795,42 +1795,42 @@
       <c r="E60" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F60" s="9" t="s">
-        <v>17</v>
+      <c r="F60" s="9">
+        <v>1473582</v>
       </c>
       <c r="G60" s="9">
-        <v>1473582</v>
+        <v>1915555</v>
       </c>
       <c r="H60" s="9">
-        <v>1915555</v>
+        <v>3266330</v>
       </c>
       <c r="I60" s="9">
-        <v>3266330</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3332016</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15">
-        <v>34554089</v>
+        <v>70404391</v>
       </c>
       <c r="F61" s="15">
-        <v>70404391</v>
+        <v>97954379</v>
       </c>
       <c r="G61" s="15">
-        <v>97954379</v>
+        <v>261102560</v>
       </c>
       <c r="H61" s="15">
-        <v>261102560</v>
+        <v>455986348</v>
       </c>
       <c r="I61" s="15">
-        <v>455986348</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>410501446</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1840,7 +1840,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1850,7 +1850,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1860,7 +1860,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>32</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1892,7 +1892,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>10</v>
       </c>
@@ -1901,22 +1901,22 @@
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
-        <v>967037</v>
+        <v>1217921</v>
       </c>
       <c r="F67" s="9">
-        <v>1217921</v>
+        <v>4921963</v>
       </c>
       <c r="G67" s="9">
-        <v>4921963</v>
+        <v>11736409</v>
       </c>
       <c r="H67" s="9">
-        <v>11736409</v>
+        <v>17679272</v>
       </c>
       <c r="I67" s="9">
-        <v>17679272</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>12</v>
       </c>
@@ -1925,22 +1925,22 @@
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>3802480</v>
+        <v>6758893</v>
       </c>
       <c r="F68" s="11">
-        <v>6758893</v>
+        <v>9144021</v>
       </c>
       <c r="G68" s="11">
-        <v>9144021</v>
+        <v>24189123</v>
       </c>
       <c r="H68" s="11">
-        <v>24189123</v>
+        <v>41050336</v>
       </c>
       <c r="I68" s="11">
-        <v>41050336</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33123882</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>13</v>
       </c>
@@ -1949,22 +1949,22 @@
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
-        <v>2419014</v>
+        <v>4221573</v>
       </c>
       <c r="F69" s="9">
-        <v>4221573</v>
+        <v>6242376</v>
       </c>
       <c r="G69" s="9">
-        <v>6242376</v>
+        <v>16705845</v>
       </c>
       <c r="H69" s="9">
-        <v>16705845</v>
+        <v>28369370</v>
       </c>
       <c r="I69" s="9">
-        <v>28369370</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>28337800</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>14</v>
       </c>
@@ -1973,22 +1973,22 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>2082580</v>
+        <v>2603310</v>
       </c>
       <c r="F70" s="11">
-        <v>2603310</v>
+        <v>3799518</v>
       </c>
       <c r="G70" s="11">
-        <v>3799518</v>
+        <v>13318915</v>
       </c>
       <c r="H70" s="11">
-        <v>13318915</v>
+        <v>19393757</v>
       </c>
       <c r="I70" s="11">
-        <v>19393757</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24275384</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>15</v>
       </c>
@@ -1997,22 +1997,22 @@
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>18369834</v>
+        <v>29615201</v>
       </c>
       <c r="F71" s="9">
-        <v>29615201</v>
+        <v>39689452</v>
       </c>
       <c r="G71" s="9">
-        <v>39689452</v>
+        <v>87133958</v>
       </c>
       <c r="H71" s="9">
-        <v>87133958</v>
+        <v>128201340</v>
       </c>
       <c r="I71" s="9">
-        <v>128201340</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>145223399</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>16</v>
       </c>
@@ -2023,20 +2023,20 @@
       <c r="E72" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F72" s="11" t="s">
-        <v>17</v>
+      <c r="F72" s="11">
+        <v>19399746</v>
       </c>
       <c r="G72" s="11">
-        <v>19399746</v>
+        <v>43522579</v>
       </c>
       <c r="H72" s="11">
-        <v>43522579</v>
+        <v>82032757</v>
       </c>
       <c r="I72" s="11">
-        <v>82032757</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>77601461</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>27</v>
       </c>
@@ -2044,8 +2044,8 @@
         <v>34</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="E73" s="9" t="s">
-        <v>17</v>
+      <c r="E73" s="9">
+        <v>0</v>
       </c>
       <c r="F73" s="9">
         <v>0</v>
@@ -2053,14 +2053,14 @@
       <c r="G73" s="9">
         <v>0</v>
       </c>
-      <c r="H73" s="9">
-        <v>0</v>
+      <c r="H73" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>18</v>
       </c>
@@ -2068,8 +2068,8 @@
         <v>34</v>
       </c>
       <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
-        <v>17</v>
+      <c r="E74" s="11">
+        <v>0</v>
       </c>
       <c r="F74" s="11">
         <v>0</v>
@@ -2077,14 +2077,14 @@
       <c r="G74" s="11">
         <v>0</v>
       </c>
-      <c r="H74" s="11">
-        <v>0</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>19</v>
       </c>
@@ -2101,14 +2101,14 @@
       <c r="G75" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H75" s="9" t="s">
-        <v>17</v>
+      <c r="H75" s="9">
+        <v>0</v>
       </c>
       <c r="I75" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>20</v>
       </c>
@@ -2125,14 +2125,14 @@
       <c r="G76" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H76" s="11" t="s">
-        <v>17</v>
+      <c r="H76" s="11">
+        <v>0</v>
       </c>
       <c r="I76" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>21</v>
       </c>
@@ -2149,14 +2149,14 @@
       <c r="G77" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H77" s="9" t="s">
-        <v>17</v>
+      <c r="H77" s="9">
+        <v>0</v>
       </c>
       <c r="I77" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>22</v>
       </c>
@@ -2173,14 +2173,14 @@
       <c r="G78" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H78" s="11" t="s">
-        <v>17</v>
+      <c r="H78" s="11">
+        <v>13022927</v>
       </c>
       <c r="I78" s="11">
-        <v>13022927</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20865108</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>23</v>
       </c>
@@ -2191,20 +2191,20 @@
       <c r="E79" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F79" s="9" t="s">
-        <v>17</v>
+      <c r="F79" s="9">
+        <v>514000</v>
       </c>
       <c r="G79" s="9">
-        <v>514000</v>
+        <v>617713</v>
       </c>
       <c r="H79" s="9">
-        <v>617713</v>
+        <v>955571</v>
       </c>
       <c r="I79" s="9">
-        <v>955571</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1096528</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2214,7 +2214,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2224,7 +2224,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2234,7 +2234,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>36</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2266,7 +2266,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>10</v>
       </c>
@@ -2274,23 +2274,23 @@
         <v>31</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
-        <v>17</v>
+      <c r="E85" s="9">
+        <v>-502311</v>
       </c>
       <c r="F85" s="9">
-        <v>-502311</v>
+        <v>-839604</v>
       </c>
       <c r="G85" s="9">
-        <v>-839604</v>
+        <v>-842975</v>
       </c>
       <c r="H85" s="9">
-        <v>-842975</v>
+        <v>-37656</v>
       </c>
       <c r="I85" s="9">
-        <v>-37656</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>12</v>
       </c>
@@ -2298,23 +2298,23 @@
         <v>31</v>
       </c>
       <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>17</v>
+      <c r="E86" s="11">
+        <v>-9033605</v>
       </c>
       <c r="F86" s="11">
-        <v>-9033605</v>
+        <v>-7101646</v>
       </c>
       <c r="G86" s="11">
-        <v>-7101646</v>
+        <v>-10788111</v>
       </c>
       <c r="H86" s="11">
-        <v>-10788111</v>
+        <v>-23494773</v>
       </c>
       <c r="I86" s="11">
-        <v>-23494773</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-26479604</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>13</v>
       </c>
@@ -2322,23 +2322,23 @@
         <v>31</v>
       </c>
       <c r="D87" s="9"/>
-      <c r="E87" s="9" t="s">
-        <v>17</v>
+      <c r="E87" s="9">
+        <v>-11783789</v>
       </c>
       <c r="F87" s="9">
-        <v>-11783789</v>
+        <v>-16579442</v>
       </c>
       <c r="G87" s="9">
-        <v>-16579442</v>
+        <v>-46241273</v>
       </c>
       <c r="H87" s="9">
-        <v>-46241273</v>
+        <v>-77120577</v>
       </c>
       <c r="I87" s="9">
-        <v>-77120577</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-88996394</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>14</v>
       </c>
@@ -2346,23 +2346,23 @@
         <v>31</v>
       </c>
       <c r="D88" s="11"/>
-      <c r="E88" s="11" t="s">
-        <v>17</v>
+      <c r="E88" s="11">
+        <v>-36397</v>
       </c>
       <c r="F88" s="11">
-        <v>-36397</v>
+        <v>-108804</v>
       </c>
       <c r="G88" s="11">
-        <v>-108804</v>
+        <v>-131375</v>
       </c>
       <c r="H88" s="11">
-        <v>-131375</v>
+        <v>-401417</v>
       </c>
       <c r="I88" s="11">
-        <v>-401417</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-706596</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>15</v>
       </c>
@@ -2370,23 +2370,23 @@
         <v>31</v>
       </c>
       <c r="D89" s="9"/>
-      <c r="E89" s="9" t="s">
-        <v>17</v>
+      <c r="E89" s="9">
+        <v>-22184172</v>
       </c>
       <c r="F89" s="9">
-        <v>-22184172</v>
+        <v>-22535957</v>
       </c>
       <c r="G89" s="9">
-        <v>-22535957</v>
+        <v>-32044507</v>
       </c>
       <c r="H89" s="9">
-        <v>-32044507</v>
+        <v>-58885055</v>
       </c>
       <c r="I89" s="9">
-        <v>-58885055</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-96272545</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>16</v>
       </c>
@@ -2397,20 +2397,20 @@
       <c r="E90" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F90" s="11" t="s">
-        <v>17</v>
+      <c r="F90" s="11">
+        <v>-2549182</v>
       </c>
       <c r="G90" s="11">
-        <v>-2549182</v>
+        <v>-3933755</v>
       </c>
       <c r="H90" s="11">
-        <v>-3933755</v>
+        <v>-3970245</v>
       </c>
       <c r="I90" s="11">
-        <v>-3970245</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4775174</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>27</v>
       </c>
@@ -2418,8 +2418,8 @@
         <v>31</v>
       </c>
       <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
-        <v>17</v>
+      <c r="E91" s="9">
+        <v>0</v>
       </c>
       <c r="F91" s="9">
         <v>0</v>
@@ -2427,14 +2427,14 @@
       <c r="G91" s="9">
         <v>0</v>
       </c>
-      <c r="H91" s="9">
-        <v>0</v>
+      <c r="H91" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I91" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>18</v>
       </c>
@@ -2442,8 +2442,8 @@
         <v>31</v>
       </c>
       <c r="D92" s="11"/>
-      <c r="E92" s="11" t="s">
-        <v>17</v>
+      <c r="E92" s="11">
+        <v>0</v>
       </c>
       <c r="F92" s="11">
         <v>0</v>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>19</v>
       </c>
@@ -2475,14 +2475,14 @@
       <c r="G93" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H93" s="9" t="s">
-        <v>17</v>
+      <c r="H93" s="9">
+        <v>0</v>
       </c>
       <c r="I93" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>20</v>
       </c>
@@ -2499,14 +2499,14 @@
       <c r="G94" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H94" s="11" t="s">
-        <v>17</v>
+      <c r="H94" s="11">
+        <v>0</v>
       </c>
       <c r="I94" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>21</v>
       </c>
@@ -2523,14 +2523,14 @@
       <c r="G95" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H95" s="9" t="s">
-        <v>17</v>
+      <c r="H95" s="9">
+        <v>0</v>
       </c>
       <c r="I95" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>22</v>
       </c>
@@ -2547,14 +2547,14 @@
       <c r="G96" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H96" s="11" t="s">
-        <v>17</v>
+      <c r="H96" s="11">
+        <v>-807563</v>
       </c>
       <c r="I96" s="11">
-        <v>-807563</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-64850</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>23</v>
       </c>
@@ -2565,42 +2565,42 @@
       <c r="E97" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="9" t="s">
-        <v>17</v>
+      <c r="F97" s="9">
+        <v>-1000896</v>
       </c>
       <c r="G97" s="9">
-        <v>-1000896</v>
+        <v>-1144476</v>
       </c>
       <c r="H97" s="9">
-        <v>-1144476</v>
+        <v>-1672815</v>
       </c>
       <c r="I97" s="9">
-        <v>-1672815</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1790794</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15">
-        <v>0</v>
+        <v>-43540274</v>
       </c>
       <c r="F98" s="15">
-        <v>-43540274</v>
+        <v>-50715531</v>
       </c>
       <c r="G98" s="15">
-        <v>-50715531</v>
+        <v>-95126472</v>
       </c>
       <c r="H98" s="15">
-        <v>-95126472</v>
+        <v>-166390101</v>
       </c>
       <c r="I98" s="15">
-        <v>-166390101</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-219085957</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2610,7 +2610,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2620,7 +2620,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2630,7 +2630,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B102" s="7" t="s">
         <v>37</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2662,7 +2662,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>10</v>
       </c>
@@ -2670,23 +2670,23 @@
         <v>31</v>
       </c>
       <c r="D104" s="9"/>
-      <c r="E104" s="9" t="s">
-        <v>17</v>
+      <c r="E104" s="9">
+        <v>147439</v>
       </c>
       <c r="F104" s="9">
-        <v>147439</v>
+        <v>664041</v>
       </c>
       <c r="G104" s="9">
-        <v>664041</v>
+        <v>1501983</v>
       </c>
       <c r="H104" s="9">
-        <v>1501983</v>
+        <v>104328</v>
       </c>
       <c r="I104" s="9">
-        <v>104328</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>12</v>
       </c>
@@ -2694,23 +2694,23 @@
         <v>31</v>
       </c>
       <c r="D105" s="11"/>
-      <c r="E105" s="11" t="s">
-        <v>17</v>
+      <c r="E105" s="11">
+        <v>11849644</v>
       </c>
       <c r="F105" s="11">
-        <v>11849644</v>
+        <v>8548565</v>
       </c>
       <c r="G105" s="11">
-        <v>8548565</v>
+        <v>23529264</v>
       </c>
       <c r="H105" s="11">
-        <v>23529264</v>
+        <v>50480477</v>
       </c>
       <c r="I105" s="11">
-        <v>50480477</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18678019</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>13</v>
       </c>
@@ -2718,23 +2718,23 @@
         <v>31</v>
       </c>
       <c r="D106" s="9"/>
-      <c r="E106" s="9" t="s">
-        <v>17</v>
+      <c r="E106" s="9">
+        <v>11335083</v>
       </c>
       <c r="F106" s="9">
-        <v>11335083</v>
+        <v>15778526</v>
       </c>
       <c r="G106" s="9">
-        <v>15778526</v>
+        <v>70736682</v>
       </c>
       <c r="H106" s="9">
-        <v>70736682</v>
+        <v>140594167</v>
       </c>
       <c r="I106" s="9">
-        <v>140594167</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>88654860</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>14</v>
       </c>
@@ -2742,23 +2742,23 @@
         <v>31</v>
       </c>
       <c r="D107" s="11"/>
-      <c r="E107" s="11" t="s">
-        <v>17</v>
+      <c r="E107" s="11">
+        <v>29675</v>
       </c>
       <c r="F107" s="11">
-        <v>29675</v>
+        <v>110280</v>
       </c>
       <c r="G107" s="11">
-        <v>110280</v>
+        <v>525727</v>
       </c>
       <c r="H107" s="11">
-        <v>525727</v>
+        <v>1187242</v>
       </c>
       <c r="I107" s="11">
-        <v>1187242</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1130735</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>15</v>
       </c>
@@ -2766,23 +2766,23 @@
         <v>31</v>
       </c>
       <c r="D108" s="9"/>
-      <c r="E108" s="9" t="s">
-        <v>17</v>
+      <c r="E108" s="9">
+        <v>3502276</v>
       </c>
       <c r="F108" s="9">
-        <v>3502276</v>
+        <v>17117020</v>
       </c>
       <c r="G108" s="9">
-        <v>17117020</v>
+        <v>58005040</v>
       </c>
       <c r="H108" s="9">
-        <v>58005040</v>
+        <v>71581090</v>
       </c>
       <c r="I108" s="9">
-        <v>71581090</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>74991297</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>16</v>
       </c>
@@ -2793,20 +2793,20 @@
       <c r="E109" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="11" t="s">
-        <v>17</v>
+      <c r="F109" s="11">
+        <v>4547730</v>
       </c>
       <c r="G109" s="11">
-        <v>4547730</v>
+        <v>10906313</v>
       </c>
       <c r="H109" s="11">
-        <v>10906313</v>
+        <v>10198781</v>
       </c>
       <c r="I109" s="11">
-        <v>10198781</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5678674</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>27</v>
       </c>
@@ -2817,20 +2817,20 @@
       <c r="E110" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F110" s="9" t="s">
-        <v>17</v>
+      <c r="F110" s="9">
+        <v>0</v>
       </c>
       <c r="G110" s="9">
         <v>0</v>
       </c>
-      <c r="H110" s="9">
-        <v>0</v>
+      <c r="H110" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I110" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>18</v>
       </c>
@@ -2841,8 +2841,8 @@
       <c r="E111" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F111" s="11" t="s">
-        <v>17</v>
+      <c r="F111" s="11">
+        <v>0</v>
       </c>
       <c r="G111" s="11">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>19</v>
       </c>
@@ -2871,14 +2871,14 @@
       <c r="G112" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H112" s="9" t="s">
-        <v>17</v>
+      <c r="H112" s="9">
+        <v>0</v>
       </c>
       <c r="I112" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>20</v>
       </c>
@@ -2895,14 +2895,14 @@
       <c r="G113" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H113" s="11" t="s">
-        <v>17</v>
+      <c r="H113" s="11">
+        <v>12945991</v>
       </c>
       <c r="I113" s="11">
-        <v>12945991</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>654719</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>21</v>
       </c>
@@ -2919,14 +2919,14 @@
       <c r="G114" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H114" s="9" t="s">
-        <v>17</v>
+      <c r="H114" s="9">
+        <v>0</v>
       </c>
       <c r="I114" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>22</v>
       </c>
@@ -2943,14 +2943,14 @@
       <c r="G115" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H115" s="11" t="s">
-        <v>17</v>
+      <c r="H115" s="11">
+        <v>910656</v>
       </c>
       <c r="I115" s="11">
-        <v>910656</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>85963</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>23</v>
       </c>
@@ -2961,39 +2961,39 @@
       <c r="E116" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F116" s="9" t="s">
-        <v>17</v>
+      <c r="F116" s="9">
+        <v>472686</v>
       </c>
       <c r="G116" s="9">
-        <v>472686</v>
+        <v>771079</v>
       </c>
       <c r="H116" s="9">
-        <v>771079</v>
+        <v>1593515</v>
       </c>
       <c r="I116" s="9">
-        <v>1593515</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1541222</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15">
-        <v>0</v>
+        <v>26864117</v>
       </c>
       <c r="F117" s="15">
-        <v>26864117</v>
+        <v>47238848</v>
       </c>
       <c r="G117" s="15">
-        <v>47238848</v>
+        <v>165976088</v>
       </c>
       <c r="H117" s="15">
-        <v>165976088</v>
+        <v>289596247</v>
       </c>
       <c r="I117" s="15">
-        <v>289596247</v>
+        <v>191415489</v>
       </c>
     </row>
   </sheetData>
